--- a/Week 46/Shareena.xlsx
+++ b/Week 46/Shareena.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Customer</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Closed</t>
-  </si>
-  <si>
-    <t>Settings change</t>
   </si>
   <si>
     <t>TRUST AUTO SPARE PARTS TRADING LLC</t>
@@ -1902,265 +1899,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$16:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Settings change</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$16:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
             <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
@@ -2636,46 +2374,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -4847,520 +4545,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr/>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6090,36 +5274,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1443037</xdr:colOff>
       <xdr:row>41</xdr:row>
@@ -6142,7 +5296,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6836,7 +5990,7 @@
   <dimension ref="A2:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6868,24 +6022,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6893,13 +6047,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -6921,7 +6075,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -6954,24 +6108,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
